--- a/data/trans_orig/P78C4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE4A625-9B81-43AA-9328-FDD742986A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9320362B-8E52-4C5E-BDBE-BCBD901AB9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B4647B1-D747-4E43-B668-FE6926F7616F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{69D12680-F29D-4B5D-BD00-07DBB894BDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de las cuotas de seguros en 2023 (Tasa respuesta: 0,32%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -95,178 +95,175 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -681,8 +678,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD10BD07-4D3C-4752-B175-0E5BF31EBEF5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6427CC-2124-482B-B86C-C7D3B66DDB18}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -815,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1362</v>
+        <v>1333</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -830,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1362</v>
+        <v>1333</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1362</v>
+        <v>1333</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>14</v>
@@ -928,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1362</v>
+        <v>1333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>14</v>
@@ -948,43 +945,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2476</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1945</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4421</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -993,43 +996,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2939</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2939</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1038,48 +1047,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5415</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1945</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7360</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1088,46 +1103,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2684</v>
+        <v>4395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>2068</v>
+        <v>4100</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>4753</v>
+        <v>8495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1136,49 +1151,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2552</v>
+        <v>5528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1633</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2552</v>
+        <v>7161</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5236</v>
+        <v>9923</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -1202,10 +1217,10 @@
         <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>2068</v>
+        <v>5733</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>14</v>
@@ -1217,10 +1232,10 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>7305</v>
+        <v>15656</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>14</v>
@@ -1234,55 +1249,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>4579</v>
+        <v>885</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>4418</v>
+        <v>2219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>8996</v>
+        <v>3104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,49 +1306,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>5259</v>
+        <v>2198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1759</v>
+        <v>802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>7019</v>
+        <v>3000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>9838</v>
+        <v>3083</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -1357,10 +1372,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>6177</v>
+        <v>3021</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>14</v>
@@ -1372,10 +1387,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N15" s="7">
-        <v>16015</v>
+        <v>6104</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>14</v>
@@ -1389,55 +1404,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>924</v>
+        <v>7756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>2405</v>
+        <v>9597</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>3329</v>
+        <v>17353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,49 +1461,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10665</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>2286</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>857</v>
+        <v>2435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>3142</v>
+        <v>13100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>3210</v>
+        <v>18421</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -1512,10 +1527,10 @@
         <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>3262</v>
+        <v>12032</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>14</v>
@@ -1527,10 +1542,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>6471</v>
+        <v>30453</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>14</v>
@@ -1543,171 +1558,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8187</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10252</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="7">
-        <v>19</v>
-      </c>
-      <c r="N19" s="7">
-        <v>18439</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
-        <v>10097</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2616</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="7">
-        <v>9</v>
-      </c>
-      <c r="N20" s="7">
-        <v>12713</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+      <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7">
-        <v>18284</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
-        <v>12868</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>28</v>
-      </c>
-      <c r="N21" s="7">
-        <v>31152</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
